--- a/PhanCongGiangDay/PhanCongGiangDay/Templates/MauBM.xlsx
+++ b/PhanCongGiangDay/PhanCongGiangDay/Templates/MauBM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="555" windowWidth="18885" windowHeight="6735"/>
+    <workbookView xWindow="195" yWindow="555" windowWidth="18885" windowHeight="6735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HTTT" sheetId="4" r:id="rId1"/>
@@ -26,10 +26,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">KTPM!$A$1:$W$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">KHMT!$A$1:$W$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">MMT!$A$1:$W$46</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HTTT!$10:$14</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">KTPM!$10:$14</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">KHMT!$10:$14</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">MMT!$10:$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -633,40 +629,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,6 +668,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -708,19 +704,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1696,9 +1692,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1726,81 +1725,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="23"/>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="23"/>
@@ -1838,31 +1837,31 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
@@ -1870,15 +1869,15 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
       <c r="O7" s="46"/>
@@ -1892,31 +1891,31 @@
       <c r="W7" s="46"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
@@ -1944,138 +1943,138 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="61" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="61" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="65" t="s">
+      <c r="T10" s="79" t="s">
         <v>23</v>
       </c>
       <c r="U10" s="80"/>
       <c r="V10" s="81"/>
-      <c r="W10" s="64" t="s">
+      <c r="W10" s="88" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="67" t="s">
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="67" t="s">
+      <c r="M11" s="78"/>
+      <c r="N11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="61" t="s">
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="62"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="82"/>
       <c r="U11" s="83"/>
       <c r="V11" s="84"/>
-      <c r="W11" s="64"/>
+      <c r="W11" s="88"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="64" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="67">
+      <c r="N12" s="76">
         <v>1</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="64">
+      <c r="O12" s="77"/>
+      <c r="P12" s="88">
         <v>2</v>
       </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
       <c r="T12" s="82"/>
       <c r="U12" s="83"/>
       <c r="V12" s="84"/>
-      <c r="W12" s="64"/>
+      <c r="W12" s="88"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="53" t="s">
         <v>9</v>
       </c>
@@ -2088,12 +2087,12 @@
       <c r="Q13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
       <c r="T13" s="82"/>
       <c r="U13" s="83"/>
       <c r="V13" s="84"/>
-      <c r="W13" s="64"/>
+      <c r="W13" s="88"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
@@ -2102,10 +2101,10 @@
       <c r="B14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="56" t="s">
         <v>31</v>
       </c>
@@ -2151,9 +2150,9 @@
       <c r="S14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="59" t="s">
         <v>46</v>
       </c>
@@ -3513,13 +3512,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:R3"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N11:Q11"/>
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="A8:W8"/>
@@ -3536,19 +3538,16 @@
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:R3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="26" max="22" man="1"/>
     <brk id="46" max="16383" man="1"/>
@@ -3591,81 +3590,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="23"/>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="23"/>
@@ -3703,31 +3702,31 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
@@ -3735,15 +3734,15 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
       <c r="O7" s="46"/>
@@ -3757,31 +3756,31 @@
       <c r="W7" s="46"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
@@ -3809,138 +3808,138 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="61" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="61" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="65" t="s">
+      <c r="T10" s="79" t="s">
         <v>23</v>
       </c>
       <c r="U10" s="80"/>
       <c r="V10" s="81"/>
-      <c r="W10" s="64" t="s">
+      <c r="W10" s="88" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="67" t="s">
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="67" t="s">
+      <c r="M11" s="78"/>
+      <c r="N11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="61" t="s">
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="62"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="82"/>
       <c r="U11" s="83"/>
       <c r="V11" s="84"/>
-      <c r="W11" s="64"/>
+      <c r="W11" s="88"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="64" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="67">
+      <c r="N12" s="76">
         <v>1</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="64">
+      <c r="O12" s="77"/>
+      <c r="P12" s="88">
         <v>2</v>
       </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
       <c r="T12" s="82"/>
       <c r="U12" s="83"/>
       <c r="V12" s="84"/>
-      <c r="W12" s="64"/>
+      <c r="W12" s="88"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="53" t="s">
         <v>9</v>
       </c>
@@ -3953,12 +3952,12 @@
       <c r="Q13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
       <c r="T13" s="82"/>
       <c r="U13" s="83"/>
       <c r="V13" s="84"/>
-      <c r="W13" s="64"/>
+      <c r="W13" s="88"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
@@ -3967,10 +3966,10 @@
       <c r="B14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="56" t="s">
         <v>31</v>
       </c>
@@ -4016,9 +4015,9 @@
       <c r="S14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="59" t="s">
         <v>46</v>
       </c>
@@ -5378,6 +5377,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="T10:V14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:R10"/>
     <mergeCell ref="W10:W13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
@@ -5394,26 +5410,9 @@
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="A8:W8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="T10:V14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="26" max="22" man="1"/>
     <brk id="46" max="16383" man="1"/>
@@ -5456,81 +5455,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="23"/>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="23"/>
@@ -5568,31 +5567,31 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
@@ -5600,15 +5599,15 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
       <c r="O7" s="46"/>
@@ -5622,31 +5621,31 @@
       <c r="W7" s="46"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
@@ -5674,138 +5673,138 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="61" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="61" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="65" t="s">
+      <c r="T10" s="79" t="s">
         <v>23</v>
       </c>
       <c r="U10" s="80"/>
       <c r="V10" s="81"/>
-      <c r="W10" s="64" t="s">
+      <c r="W10" s="88" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="67" t="s">
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="67" t="s">
+      <c r="M11" s="78"/>
+      <c r="N11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="61" t="s">
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="62"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="82"/>
       <c r="U11" s="83"/>
       <c r="V11" s="84"/>
-      <c r="W11" s="64"/>
+      <c r="W11" s="88"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="64" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="67">
+      <c r="N12" s="76">
         <v>1</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="64">
+      <c r="O12" s="77"/>
+      <c r="P12" s="88">
         <v>2</v>
       </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
       <c r="T12" s="82"/>
       <c r="U12" s="83"/>
       <c r="V12" s="84"/>
-      <c r="W12" s="64"/>
+      <c r="W12" s="88"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="53" t="s">
         <v>9</v>
       </c>
@@ -5818,12 +5817,12 @@
       <c r="Q13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
       <c r="T13" s="82"/>
       <c r="U13" s="83"/>
       <c r="V13" s="84"/>
-      <c r="W13" s="64"/>
+      <c r="W13" s="88"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
@@ -5832,10 +5831,10 @@
       <c r="B14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="56" t="s">
         <v>31</v>
       </c>
@@ -5881,9 +5880,9 @@
       <c r="S14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="59" t="s">
         <v>46</v>
       </c>
@@ -7243,6 +7242,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="T10:V14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:R10"/>
     <mergeCell ref="W10:W13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
@@ -7259,26 +7275,9 @@
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="A8:W8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="T10:V14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="26" max="22" man="1"/>
     <brk id="46" max="16383" man="1"/>
@@ -7291,10 +7290,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7321,81 +7323,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="23"/>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="23"/>
@@ -7433,31 +7435,31 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
@@ -7465,15 +7467,15 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
       <c r="O7" s="46"/>
@@ -7487,31 +7489,31 @@
       <c r="W7" s="46"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
@@ -7539,138 +7541,138 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="61" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="61" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="65" t="s">
+      <c r="T10" s="79" t="s">
         <v>23</v>
       </c>
       <c r="U10" s="80"/>
       <c r="V10" s="81"/>
-      <c r="W10" s="64" t="s">
+      <c r="W10" s="88" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="67" t="s">
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="67" t="s">
+      <c r="M11" s="78"/>
+      <c r="N11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="61" t="s">
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="62"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="82"/>
       <c r="U11" s="83"/>
       <c r="V11" s="84"/>
-      <c r="W11" s="64"/>
+      <c r="W11" s="88"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="64" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="67">
+      <c r="N12" s="76">
         <v>1</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="64">
+      <c r="O12" s="77"/>
+      <c r="P12" s="88">
         <v>2</v>
       </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
       <c r="T12" s="82"/>
       <c r="U12" s="83"/>
       <c r="V12" s="84"/>
-      <c r="W12" s="64"/>
+      <c r="W12" s="88"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="53" t="s">
         <v>9</v>
       </c>
@@ -7683,12 +7685,12 @@
       <c r="Q13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
       <c r="T13" s="82"/>
       <c r="U13" s="83"/>
       <c r="V13" s="84"/>
-      <c r="W13" s="64"/>
+      <c r="W13" s="88"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
@@ -7697,10 +7699,10 @@
       <c r="B14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="56" t="s">
         <v>31</v>
       </c>
@@ -7746,9 +7748,9 @@
       <c r="S14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="59" t="s">
         <v>46</v>
       </c>
@@ -9108,6 +9110,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="T10:V14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:R10"/>
     <mergeCell ref="W10:W13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
@@ -9124,26 +9143,9 @@
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="A8:W8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="T10:V14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="26" max="22" man="1"/>
     <brk id="46" max="16383" man="1"/>
